--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiktr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C95073-D9D1-40B7-8A67-F38959BB587A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C302F4E-BEAE-4163-9F8C-24BE6A638585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A30D2B41-88E1-43CC-A132-183753402AA5}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <t>TOTAL ESTIMATED PROJECT COST:</t>
   </si>
   <si>
-    <t>~$390 - $455</t>
+    <t>~$390 - $400</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiktr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C302F4E-BEAE-4163-9F8C-24BE6A638585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44053138-202F-46CF-A818-8519E1559A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A30D2B41-88E1-43CC-A132-183753402AA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57E9E990-8104-4EA4-B8D8-D3E57A721CB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zestawienie Komponentów PRO" sheetId="2" r:id="rId1"/>
+    <sheet name="BOM_Koszyk" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,165 +25,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
-  <si>
-    <t>Komponent</t>
-  </si>
-  <si>
-    <t>Cel / Przeznaczenie</t>
-  </si>
-  <si>
-    <t>Poziom</t>
-  </si>
-  <si>
-    <t>Szacowany Koszt</t>
-  </si>
-  <si>
-    <t>Przykładowy Link / Źródło</t>
-  </si>
-  <si>
-    <t>Raspberry Pi 4 (4GB/8GB)</t>
-  </si>
-  <si>
-    <t>Main controller &amp; WiFi server. More RAM for complex RGB patterns.</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>~$60 - $75</t>
-  </si>
-  <si>
-    <t>Raspberry Pi 4 Model B (4GB/8GB)</t>
-  </si>
-  <si>
-    <t>30kpps / 40kpps Galvo Set</t>
-  </si>
-  <si>
-    <t>High-speed scanners for smooth, complex RGB patterns.</t>
-  </si>
-  <si>
-    <t>Pro</t>
-  </si>
-  <si>
-    <t>~$130 - $150</t>
-  </si>
-  <si>
-    <t>40Kpps High Speed Galvo Scanner Set</t>
-  </si>
-  <si>
-    <t>RGB Laser Module (Analog Mod.)</t>
-  </si>
-  <si>
-    <t>Full-color laser (Red, Green, Blue) with 0-5V analog modulation inputs.</t>
-  </si>
-  <si>
-    <t>~$90 - $110</t>
-  </si>
-  <si>
-    <t>500mW RGB Full Color Laser Module Analog TTL</t>
-  </si>
-  <si>
-    <t>3x MCP4922 (DIP-14)</t>
-  </si>
-  <si>
-    <t>Multiple 12-bit DACs to handle 5 analog channels (X, Y, R, G, B).</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>~$10.00</t>
-  </si>
-  <si>
-    <t>MCP4922-E/P (DIP-14) Dual 12-bit DAC</t>
-  </si>
-  <si>
-    <t>3x TL072 (DIP-8) + 2x CD4050BE</t>
-  </si>
-  <si>
-    <t>Dedicated Op-Amps for X/Y signal conditioning &amp; Level Shifters for RGB.</t>
-  </si>
-  <si>
-    <t>~$5.00</t>
-  </si>
-  <si>
-    <t>Search: TL072 DIP-8 and CD4050BE</t>
-  </si>
-  <si>
-    <t>Mean Well LRS-100-12 PSU</t>
-  </si>
-  <si>
-    <t>High quality, stable industrial power supply (12V or 24V primary).</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>~$20.00</t>
-  </si>
-  <si>
-    <t>Mean Well LRS-100-12 12V 8.5A PSU</t>
-  </si>
-  <si>
-    <t>2020 Aluminum Frame + 3D Printed Parts</t>
-  </si>
-  <si>
-    <t>Hybrid chassis: Metal frame for rigidity, custom 3D printed mounts for optics &amp; electronics.</t>
-  </si>
-  <si>
-    <t>Mech</t>
-  </si>
-  <si>
-    <t>2020 T-Slot Aluminum Extrusion Profile</t>
-  </si>
-  <si>
-    <t>Custom 4-Layer PCB Manufacturing</t>
-  </si>
-  <si>
-    <t>For complex routing, better noise immunity, and integrated design.</t>
-  </si>
-  <si>
-    <t>Elec</t>
-  </si>
-  <si>
-    <t>4-Layer PCB Prototype Quote (PCBWay)</t>
-  </si>
-  <si>
-    <t>Dichroic Safety Glass / IR Filter</t>
-  </si>
-  <si>
-    <t>Professional optical window for beam shaping and eye protection.</t>
-  </si>
-  <si>
-    <t>~$15.00</t>
-  </si>
-  <si>
-    <t>Laser Safety Window/Dichroic Filter</t>
-  </si>
-  <si>
-    <t>Passives (Resistors/Caps/Connectors)</t>
-  </si>
-  <si>
-    <t>Essential filtering, pull-ups, and reliable connectivity.</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Resistor Capacitor Connector Kit Search</t>
-  </si>
-  <si>
-    <t>TOTAL ESTIMATED PROJECT COST:</t>
-  </si>
-  <si>
-    <t>~$390 - $400</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>Bill of Materials (BOM) - Zawartość koszyka</t>
+  </si>
+  <si>
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>Nazwa Produktu</t>
+  </si>
+  <si>
+    <t>Ilość</t>
+  </si>
+  <si>
+    <t>Cena (PLN)</t>
+  </si>
+  <si>
+    <t>Cena (USD)</t>
+  </si>
+  <si>
+    <t>10/50 sztuk złącza śrubowego PCB KF951 (9.5mm)</t>
+  </si>
+  <si>
+    <t>100/400 sztuk 1% zestaw rezystorów 1/2W</t>
+  </si>
+  <si>
+    <t>10 sztuk zestawu układów scalonych (IC) 2.54 mm</t>
+  </si>
+  <si>
+    <t>10 sztuk wzmacniacza operacyjnego TL074C SOP-14</t>
+  </si>
+  <si>
+    <t>Przetwornica DC-DC obniżająca napięcie LM2596</t>
+  </si>
+  <si>
+    <t>Płytka Raspberry Pi Pico W (TYPE-C, RP2040)</t>
+  </si>
+  <si>
+    <t>Zestaw kondensatorów ceramicznych (2pF - 0.1uF)</t>
+  </si>
+  <si>
+    <t>420 sztuk zestawu złącz Dupont 2.54 mm</t>
+  </si>
+  <si>
+    <t>Kombinowany moduł laserowy 808 200MW/400MW</t>
+  </si>
+  <si>
+    <t>10 sztuk mosiężnych śrub dystansowych (M2-M8)</t>
+  </si>
+  <si>
+    <t>50 sztuk tranzystorów (2N7002, 2N2222, 2N3904 itp.)</t>
+  </si>
+  <si>
+    <t>Laser animacyjny 1W/2W do efektów scenicznych DIY</t>
+  </si>
+  <si>
+    <t>1 sztuka przetwornika A/C (MCP3424, MCP3428 itp.)</t>
+  </si>
+  <si>
+    <t>Podsumowanie:</t>
+  </si>
+  <si>
+    <t>Suma produktów</t>
+  </si>
+  <si>
+    <t>Wysyłka</t>
+  </si>
+  <si>
+    <t>Szacowana suma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;zł&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,9 +124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -221,7 +142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBED2E6"/>
+        <fgColor rgb="FFDCDCDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,59 +157,44 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF969696"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF969696"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF969696"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF969696"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,234 +506,355 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB10DCE-EC9E-4EA0-B28F-48B33948771A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA4E20-20A9-4E3C-9350-1A2019679B9C}">
   <sheetPr codeName="Arkusz2"/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.29</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6.52</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>15.42</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10.99</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>17.89</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>109.39</v>
+      </c>
+      <c r="E13" s="10">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5.55</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>201.79</v>
+      </c>
+      <c r="E16" s="10">
+        <v>54.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6">
+        <v>483.38</v>
+      </c>
+      <c r="E20" s="10">
+        <v>130.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6">
+        <v>57.7</v>
+      </c>
+      <c r="E21" s="10">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8">
+        <v>541.08000000000004</v>
+      </c>
+      <c r="E22" s="11">
+        <v>146.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{14D74BD0-2D45-470E-A2D7-88DD3D759A0D}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B81639D6-1B28-466E-A3EC-49F70A0DC5CC}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{FBEF5DB2-1EF5-4DA0-B464-FE68E982AF0F}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{02BDF0BB-F64A-4184-95D8-540C5634663F}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{B3BA3DAF-EEDB-443B-85EF-DD64463BDE5C}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{30A2938C-91B8-460E-924D-365B8976C6A9}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{03E34FB6-7172-416A-B15C-70950359AF52}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{0B68E7D7-B7EE-4A55-9DF4-4DFBF0EA79E0}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{C945481B-DF6A-4F96-829F-4798B63EE0DB}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{1B72D666-E077-4EAD-9F9B-6FD8E247A8B3}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>